--- a/src/Shapefile_prep/geocodigos_nombres.xlsx
+++ b/src/Shapefile_prep/geocodigos_nombres.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,3278 +382,7480 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50201</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>COBAN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>50202</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LAS CHARCAS</t>
+          <t>SANTA CRUZ VERAPAZ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50203</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAS YAYAS DE VIAJAMA</t>
+          <t>SAN CRISTOBAL VERAPAZ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>50204</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PADRE LAS CASAS</t>
+          <t>TACTIC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>50205</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PERALTA</t>
+          <t>TAMAHU</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50206</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SABANA YEGUA</t>
+          <t>TUCURU</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>50207</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PUEBLO VIEJO</t>
+          <t>PANZOS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>50208</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TABARA ARRIBA</t>
+          <t>SENAHU</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>50209</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GUAYABAL</t>
+          <t>SAN PEDRO CARCHA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>50210</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AZUA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESTEBANIA</t>
+          <t>SAN JUAN CHAMELCO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>60301</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BAORUCO</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NEIBA</t>
+          <t>SAN AGUSTIN LANQUIN</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>60302</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BAORUCO</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GALVAN</t>
+          <t>SANTA MARIA CAHABON</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60303</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BAORUCO</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TAMAYO</t>
+          <t>CHISEC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BAORUCO</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VILLA JARAGUA</t>
+          <t>CHAHAL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>60305</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BAORUCO</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LOS RIOS</t>
+          <t>FRAY BARTOLOME DE LAS CASAS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>60401</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>SANTA CATALINA LA TINTA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>60402</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>ALTA VERAPAZ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CABRAL</t>
+          <t>RAXRUHA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>60403</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ENRIQUILLO</t>
+          <t>SALAMA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>60404</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PARAISO</t>
+          <t>SAN MIGUEL CHICAJ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>60405</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VICENTE NOBLE</t>
+          <t>RABINAL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>60406</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EL PENON</t>
+          <t>CUBULCO</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>60407</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LA CIENAGA</t>
+          <t>GRANADOS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>60408</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FUNDACION</t>
+          <t>SANTA CRUZ EL CHOL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>60409</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LAS SALINAS</t>
+          <t>SAN JERONIMO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>60410</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>BAJA VERAPAZ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POLO</t>
+          <t>PURULHA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>60411</t>
+          <t>401</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BARAHONA</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>JAQUIMEYES</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>40501</t>
+          <t>402</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DAJABON</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DAJABON</t>
+          <t>SAN JOSE POAQUIL</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>40502</t>
+          <t>403</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DAJABON</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LOMA DE CABRERA</t>
+          <t>SAN MARTIN JILOTEPEQUE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>40503</t>
+          <t>404</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DAJABON</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PARTIDO</t>
+          <t>SAN JUAN COMALAPA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>40504</t>
+          <t>405</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DAJABON</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RESTAURACION</t>
+          <t>SANTA APOLONIA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>40505</t>
+          <t>406</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DAJABON</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EL PINO</t>
+          <t>TECPAN GUATEMALA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>407</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DISTRITO NACIONAL</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DN-4</t>
+          <t>PATZUN</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>408</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DISTRITO NACIONAL</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DN-5</t>
+          <t>SAN MIGUEL POCHUTA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>409</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DISTRITO NACIONAL</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DN-6</t>
+          <t>PATZICIA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>30601</t>
+          <t>410</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DUARTE</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DE MACORIS</t>
+          <t>SANTA CRUZ BALANYA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>30602</t>
+          <t>411</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DUARTE</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ARENOSO</t>
+          <t>ACATENANGO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>30603</t>
+          <t>412</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DUARTE</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>SAN PEDRO YEPOCAPA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>30604</t>
+          <t>413</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DUARTE</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PIMENTEL</t>
+          <t>SAN ANDRES ITZAPA</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>30605</t>
+          <t>414</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DUARTE</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VILLA RIVA</t>
+          <t>PARRAMOS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>30606</t>
+          <t>415</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DUARTE</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LAS GUARANAS</t>
+          <t>ZARAGOZA</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>30607</t>
+          <t>416</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DUARTE</t>
+          <t>CHIMALTENANGO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>EUGENIO MARIA DE HOSTOS</t>
+          <t>EL TEJAR</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>80801</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EL SEIBO</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EL SEIBO</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>80802</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EL SEIBO</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MICHES</t>
+          <t>SAN JOSE LA ARADA</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>70701</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ELIAS PINA</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>COMENDADOR</t>
+          <t>SAN JUAN ERMITA</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>70702</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ELIAS PINA</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BANICA</t>
+          <t>JOCOTAN</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>70703</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ELIAS PINA</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>EL LLANO</t>
+          <t>CAMOTAN</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>70704</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ELIAS PINA</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HONDO VALLE</t>
+          <t>OLOPA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>70705</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ELIAS PINA</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PEDRO SANTANA</t>
+          <t>ESQUIPULAS</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>70706</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ELIAS PINA</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>JUAN SANTIAGO</t>
+          <t>CONCEPCION LAS MINAS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10901</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ESPAILLAT</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MOCA</t>
+          <t>QUEZALTEPEQUE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10902</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ESPAILLAT</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CAYETANO GERMOSEN</t>
+          <t>SAN JACINTO</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10903</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ESPAILLAT</t>
+          <t>CHIQUIMULA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GASPAR HERNANDEZ</t>
+          <t>IPALA</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10904</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ESPAILLAT</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>JAMAO AL NORTE</t>
+          <t>GUASTATOYA</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>93001</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HATO MAYOR</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HATO MAYOR</t>
+          <t>MORAZAN</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>93002</t>
+          <t>203</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HATO MAYOR</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SABANA DE LA MAR</t>
+          <t>SAN AGUSTIN ACASAGUASTLAN</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>93003</t>
+          <t>204</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HATO MAYOR</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EL VALLE</t>
+          <t>SAN CRISTOBAL ACASAGUASTLAN</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31901</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HERMANAS MIRABAL</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SALCEDO</t>
+          <t>EL JICARO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>31902</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HERMANAS MIRABAL</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TENARES</t>
+          <t>SANARATE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>31903</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HERMANAS MIRABAL</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VILLA TAPIA</t>
+          <t>SANSARE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>61001</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>JIMANI</t>
+          <t>SAN ANTONIO LA PAZ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>61002</t>
+          <t>501</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DUVERGE</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>61003</t>
+          <t>502</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LA DESCUBIERTA</t>
+          <t>SANTA LUCIA COTZULMALGUAPA</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>61004</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>POSTRER RIO</t>
+          <t>LA DEMOCRACIA</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>61005</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CRISTOBAL</t>
+          <t>SIQUINALA</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>61006</t>
+          <t>505</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MELLA</t>
+          <t>MASAGUA</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>81101</t>
+          <t>506</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LA ALTAGRACIA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HIGUEY</t>
+          <t>TIQUISATE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>81102</t>
+          <t>507</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LA ALTAGRACIA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SAN RAFAEL DEL YUMA</t>
+          <t>LA GOMERA</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>81201</t>
+          <t>508</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LA ROMANA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LA ROMANA</t>
+          <t>GUANAGAZAPA</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>81202</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LA ROMANA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>GUAYMATE</t>
+          <t>SAN JOSE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>81203</t>
+          <t>510</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LA ROMANA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VILLA HERMOSA</t>
+          <t>IZTAPA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21301</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LA VEGA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LA VEGA</t>
+          <t>PALIN</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>21302</t>
+          <t>512</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LA VEGA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CONSTANZA</t>
+          <t>SAN VICENTE PACAYA</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>21303</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LA VEGA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>JARABACOA</t>
+          <t>NUEVA CONCEPCION</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21304</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LA VEGA</t>
+          <t>ESCUINTLA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>JIMA ABAJO</t>
+          <t>SIPACATE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>31401</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MARIA TRINIDAD SANCHEZ</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NAGUA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31402</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MARIA TRINIDAD SANCHEZ</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CABRERA</t>
+          <t>SANTA CATARINA PINULA</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>31403</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MARIA TRINIDAD SANCHEZ</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EL FACTOR</t>
+          <t>SAN JOSE PINULA</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>31404</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MARIA TRINIDAD SANCHEZ</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RIO SAN JUAN</t>
+          <t>SAN JOSE DEL GOLFO</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>22801</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MONSENOR NOUEL</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>BONAO</t>
+          <t>PALENCIA</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>22802</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MONSENOR NOUEL</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MAIMON</t>
+          <t>CHINAUTLA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22803</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MONSENOR NOUEL</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PIEDRA BLANCA</t>
+          <t>SAN PEDRO AYAMPUC</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>41501</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MONTE CRISTI</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MONTE CRISTI</t>
+          <t>MIXCO</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>41502</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MONTE CRISTI</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CASTANUELAS</t>
+          <t>SAN PEDRO SACATEPEQUEZ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>41503</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MONTE CRISTI</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>GUAYUBIN</t>
+          <t>SAN JUAN SACATEPEQUEZ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>41504</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MONTE CRISTI</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LAS MATAS DE SANTA CRUZ</t>
+          <t>SAN RAYMUNDO</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>41505</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MONTE CRISTI</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PEPILLO SALCEDO</t>
+          <t>CHUARRANCHO</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>41506</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MONTE CRISTI</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VILLA VASQUEZ</t>
+          <t>FRAIJANES</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>92901</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MONTE PLATA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>MONTE PLATA</t>
+          <t>AMATITLAN</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>92902</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MONTE PLATA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>BAYAGUANA</t>
+          <t>VILLA NUEVA</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>92903</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MONTE PLATA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SABANA GRANDE DE BOYA</t>
+          <t>VILLA CANALES</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>92904</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MONTE PLATA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>YAMASA</t>
+          <t>SAN MIGUEL PETAPA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>92905</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MONTE PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PERALVILLO</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>61601</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PEDERNALES</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PEDERNALES</t>
+          <t>CHIANTLA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>61602</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PEDERNALES</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>OVIEDO</t>
+          <t>MALACATANCITO</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>51701</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PERAVIA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>BANI</t>
+          <t>CUILCO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>51702</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PERAVIA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NIZAO</t>
+          <t>NENTON</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>11801</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>SAN PEDRO NECTA</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>11802</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>JACALTENANGO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>11803</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>GUANANICO</t>
+          <t>SAN PEDRO SOLOMA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>11804</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>IMBERT</t>
+          <t>SAN IDELFONSO IXTAHUACAN</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11805</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LOS HIDALGOS</t>
+          <t>SANTA BARBARA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>11806</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LUPERON</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>11807</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SOSUA</t>
+          <t>LA DEMOCRACIA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>11808</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VILLA ISABELA</t>
+          <t>SAN MIGUEL ACATAN</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>11809</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PUERTO PLATA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VILLA MONTELLANO</t>
+          <t>SAN RAFAEL LA INDEPENDENCIA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>32001</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SAMANA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SAMANA</t>
+          <t>TODOS SANTOS CUCHUMATAN</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>32002</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SAMANA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SANCHEZ</t>
+          <t>SAN JUAN ATITAN</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>32003</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SAMANA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LAS TERRENAS</t>
+          <t>SANTA EULALIA</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>52101</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>SAN MATEO IXTATAN</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>52102</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SABANA GRANDE DE PALENQUE</t>
+          <t>COLOTENANGO</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52103</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>BAJOS DE HAINA</t>
+          <t>SAN SEBASTIAN HUEHUETENANGO</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>52104</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CAMBITA GARABITOS</t>
+          <t>TECTITAN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>52105</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VILLA ALTAGRACIA</t>
+          <t>CONCEPCION HUISTA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>52106</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>YAGUATE</t>
+          <t>SAN JUAN IXCOY</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>52107</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SAN GREGORIO DE NIGUA</t>
+          <t>SAN ANTONIO HUISTA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>52108</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SAN CRISTOBAL</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LOS CACAOS</t>
+          <t>SAN SEBASTIAN COATAN</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>53101</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SAN JOSE DE OCOA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SAN JOSE DE OCOA</t>
+          <t>BARILLAS</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>53102</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SAN JOSE DE OCOA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SABANA LARGA</t>
+          <t>AGUACATAN</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>53103</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SAN JOSE DE OCOA</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RANCHO ARRIBA</t>
+          <t>SAN RAFAEL PETZAL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>72201</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>SAN GASPAR IXCHIL</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>72202</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>BOHECHIO</t>
+          <t>SANTIAGO CHIMALTENANGO</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>72203</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>EL CERCADO</t>
+          <t>SANTA ANA HUISTA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>72204</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>JUAN DE HERRERA</t>
+          <t>UNION CANTINIL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>72205</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>HUEHUETENANGO</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LAS MATAS DE FARFAN</t>
+          <t>PETATAN</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>72206</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SAN JUAN</t>
+          <t>IZABAL</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VALLEJUELO</t>
+          <t>PUERTO BARRIOS</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>92301</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE MACORIS</t>
+          <t>IZABAL</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE MACORIS</t>
+          <t>LIVINGSTON</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>92302</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE MACORIS</t>
+          <t>IZABAL</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LOS LLANOS</t>
+          <t>EL ESTOR</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>92303</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE MACORIS</t>
+          <t>IZABAL</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RAMON SANTANA</t>
+          <t>MORALES</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>92304</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE MACORIS</t>
+          <t>IZABAL</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CONSUELO</t>
+          <t>LOS AMATES</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>92305</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE MACORIS</t>
+          <t>JALAPA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>QUISQUEYA</t>
+          <t>JALAPA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>92306</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SAN PEDRO DE MACORIS</t>
+          <t>JALAPA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>GUAYACANES</t>
+          <t>SAN PEDRO PINULA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>22401</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SANCHEZ RAMIREZ</t>
+          <t>JALAPA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>COTUI</t>
+          <t>SAN LUIS JILOTEPEQUE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>22402</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SANCHEZ RAMIREZ</t>
+          <t>JALAPA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>CEVICOS</t>
+          <t>SAN MANUEL CHAPARRON</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>22403</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SANCHEZ RAMIREZ</t>
+          <t>JALAPA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>FANTINO</t>
+          <t>SAN CARLOS ALZATATE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>22404</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SANCHEZ RAMIREZ</t>
+          <t>JALAPA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>LA MATA</t>
+          <t>MONJAS</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>JALAPA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SANTIAGO (AREA 1)</t>
+          <t>MATAQUESCUINTLA</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SANTIAGO (AREA 2)</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>2202</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SANTIAGO (AREA 3)</t>
+          <t>EL PROGRESO</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>42601</t>
+          <t>2203</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SANTIAGO RODRIGUEZ</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SAN IGNACIO DE SABANETA</t>
+          <t>SANTA CATARINA MITA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>42602</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SANTIAGO RODRIGUEZ</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>VILLA LOS ALMACIGOS</t>
+          <t>AGUA BLANCA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>42603</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SANTIAGO RODRIGUEZ</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>MONCION</t>
+          <t>ASUNCION MITA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SD-1</t>
+          <t>YUPILTEPEQUE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>SD-2</t>
+          <t>ATESCATEMPA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SD-3</t>
+          <t>JEREZ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>2209</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SD-7</t>
+          <t>EL ADELANTO</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SD-8</t>
+          <t>ZAPOTITLAN</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>42701</t>
+          <t>2211</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>VALVERDE</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>COMAPA</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>42702</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>VALVERDE</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ESPERANZA</t>
+          <t>JALPATAGUA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>42703</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>VALVERDE</t>
+          <t>JUTIAPA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LAGUNA SALADA</t>
+          <t>CONGUACO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>JUTIAPA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MOYUTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>JUTIAPA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>PASACO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>JUTIAPA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>SAN JOSE ACATEMPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>JUTIAPA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>QUESADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>FLORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>SAN JOSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1703</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>SAN BENITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1704</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>SAN ANDRES</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>SANTA ANA</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>DOLORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SAYAXCHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>MELCHOR DE MENCOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>POPTUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>LAS CRUCES</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1714</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PETEN</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>EL CHAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SALCAJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>OLINTEPEQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SAN CARLOS SIJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SIBILIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>CABRICAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>CAJOLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL SIGUILA</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>SAN JUAN OSTUNCALCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>SAN MATEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>CONCEPCION CHIQUIRICHAPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>SAN MARTIN SACATEPEQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>ALMOLONGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>CANTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>HUITAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>ZUNIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>COLOMBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO LA UNION</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>EL PALMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>COATEPEQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>GENOVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>FLORES COSTA CUCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>LA ESPERANZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>QUETZALTENANGO</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>PALESTINA DE LOS ALTOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ DEL QUICHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>CHICHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>CHINIQUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1404</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>ZACUALPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>CHAJUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1406</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>CHICHICASTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1407</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>PATZITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO ILOTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1409</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>SAN PEDRO JOCOPILAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>CUNEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>SAN JUAN COTZAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>JOYABAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>NEBAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>SAN ANDRES SAJCABAJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL USPANTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1416</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>SACAPULAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>SAN BARTOLOME JOCOTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1418</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>CANILLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1419</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>CHICAMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>IXCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>QUICHE</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>PACHALUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SAN SEBASTIAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ MULUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>SAN MARTIN ZAPOTITLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SAN FELIPE RETALHULEU</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>SAN ANDRES VILLA SECA</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>CHAMPERICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>NUEVO SAN CARLOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>RETALHULEU</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>EL ASINTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>ANTIGUA GUATEMALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>JOCOTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>PASTORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>SUMPANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>SANTO DOMINGO XENACOJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>SANTIAGO SACATEPEQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>SAN BARTOLOME MILPAS ALTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>SAN LUCAS SACATEPEQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>SANTA LUCIA MILPAS ALTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>MAGDALENA MILPAS ALTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>SANTA MARIA DE JESUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>CIUDAD VIEJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL DUENAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>ALOTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO AGUAS CALIENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>SACATEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>SANTA CATARINA BARAHONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>SAN PEDRO SACATEPEQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO SACATEPEQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>COMITANCILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL IXTAHUACAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>CONCEPCION TUTUAPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>TACANA</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>SIBINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>TAJUMULCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>TEJUTLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>SAN RAFAEL PIE DE LA CUESTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>NUEVO PROGRESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>EL TUMBADOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>EL RODEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>MALACATAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>CATARINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>AYUTLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>OCOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>SAN PABLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>EL QUETZAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>LA REFORMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>PAJAPITA</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>IXCHIGUAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>SAN JOSE OJETENAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>SAN CRISTOBAL CUCHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>SIPACAPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>ESQUIPULAS PALO GORDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>RIO BLANCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1229</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>SAN LORENZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>SAN MARCOS</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>LA BLANCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>CUILAPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>BARBERENA</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>SANTA ROSA DE LIMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>CASILLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>SAN RAFAEL LAS FLORES</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>ORATORIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>SAN JUAN TECUACO</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>CHIQUIMULILLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>TAXISCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>SANTA MARIA IXHUATAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>GUAZACAPAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ NARANJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>PUEBLO NUEVO VINAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>SANTA ROSA</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>NUEVA SANTA ROSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>SAN JOSE CHACAYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>SANTA MARIA VISITACION</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>SANTA LUCIA UTATLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>NAHUALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>SANTA CATARINA IXTAHUACAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>SANTA CLARA LA LAGUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>CONCEPCION</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>SAN ANDRES SEMETABAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>PANAJACHEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>SANTA CATARINA PALOPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO PALOPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>SAN LUCAS TOLIMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ LA LAGUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>SAN PABLO LA LAGUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>SAN MARCOS LA LAGUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>SAN JUAN LA LAGUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>SAN PEDRO LA LAGUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>SOLOLA</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>SANTIAGO ATITLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>MAZATENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>CUYOTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO ZAPOTITLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>SAN BERNARDINO</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>SAN JOSE EL IDOLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>SANTO DOMINGO SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>SAN LORENZO</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>SAMAYAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>SAN PABLO JOCOPILAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>SAN MIGUEL PANAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>SAN GABRIEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>CHICACAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>PATULUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>SANTA BARBARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>SAN JUAN BAUTISTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>SANTO TOMAS LA UNION</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>ZUNILITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>PUEBLO NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>RIO BRAVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>SUCHITEPEQUEZ</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>SAN JOSE LA MAQUINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>SAN CRISTOBAL TOTONICAPAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>SAN FRANCISCO EL ALTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>SAN ANDRES XECUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>MOMOSTENANGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>SANTA MARIA CHIQUIMULA</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>SANTA LUCIA LA REFORMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>TOTONICAPAN</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>SAN BARTOLO AGUAS CALIENTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>ESTANZUELA</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>RIO HONDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>GUALAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>TECULUTAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>USUMATLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>CABANAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>SAN DIEGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>LA UNION</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>HUITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ZACAPA</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>SAN JORGE</t>
         </is>
       </c>
     </row>
